--- a/public/templates/reporte_gasto_cuadrilla_fdm.xlsx
+++ b/public/templates/reporte_gasto_cuadrilla_fdm.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\santarita\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD4C629-FDA4-432D-B736-BB5BAFFB580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854680E-8EA5-4755-8EB9-5BDA37174BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GASTO_CUADRILLA_FDM" sheetId="1" r:id="rId1"/>
+    <sheet name="GASTO_CUADRILLA_FDM_ADICIONAL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>N° Orden</t>
   </si>
@@ -68,6 +69,24 @@
   </si>
   <si>
     <t>Cuadrillero</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Fecha de Gasto</t>
+  </si>
+  <si>
+    <t>Fecha Contable</t>
+  </si>
+  <si>
+    <t>Grupo</t>
   </si>
 </sst>
 </file>
@@ -153,222 +172,54 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="52">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="28" formatCode="mm:ss"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="28" formatCode="mm:ss"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="28" formatCode="mm:ss"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF056A70"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF056A70"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -473,6 +324,325 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="28" formatCode="mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="28" formatCode="mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="28" formatCode="mm:ss"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF056A70"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF056A70"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF056A70"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -487,25 +657,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{684675C8-2925-4F6D-A7F2-4E88AED001B6}" name="GASTO_CUADRILLA_FDM" displayName="GASTO_CUADRILLA_FDM" ref="A1:P2" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{684675C8-2925-4F6D-A7F2-4E88AED001B6}" name="GASTO_CUADRILLA_FDM" displayName="GASTO_CUADRILLA_FDM" ref="A1:P2" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48">
   <autoFilter ref="A1:P2" xr:uid="{684675C8-2925-4F6D-A7F2-4E88AED001B6}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{84DDF4D9-9FD5-4EF1-9783-7C3003882BCC}" name="N° Orden" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{27F33313-BF22-4813-9CBF-AF18C8CE8220}" name="Año" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="15" xr3:uid="{9E965CC0-0AD7-4E9A-9EE6-43488A888CF2}" name="Mes" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{BC1937A7-A6F3-4019-8F0B-60B16E6CCAC7}" name="Fecha" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{0D0FD998-7A27-4543-999D-FE1E149CCB45}" name="Documento" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{27C115B6-6274-43AF-A047-B014FC3752D5}" name="Cuadrillero" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{F934CB7F-B87F-4107-8A54-F118E01280A8}" name="Labor" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{3284687B-70EC-4DC3-9EF3-BBA234533B31}" name="Campo" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{6BF3E704-3F70-4CF9-B15B-97195EAB7DEB}" name="Horas total x dia" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{3688AE2E-44C0-4147-9C3C-B411CA70E8AF}" name="Hora inicial" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{B923B5EA-FD28-433A-8090-E1B67FB4B9F1}" name="Hora final" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B2753056-5702-4DFD-89FD-09214BB6B2E5}" name="Total de horas" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{690EE152-C8F6-4281-BDAD-2BEBDDFF6AC5}" name="Costo hora" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{738DC6D6-CA13-4A0B-8562-726A03E47000}" name="Gasto" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{DE01F3CB-7246-4A42-91A3-B1931E49159A}" name="Gasto bono" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{85416B26-3F0C-414D-9DD8-B6C606080F55}" name="Gasto total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{84DDF4D9-9FD5-4EF1-9783-7C3003882BCC}" name="N° Orden" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{27F33313-BF22-4813-9CBF-AF18C8CE8220}" name="Año" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{9E965CC0-0AD7-4E9A-9EE6-43488A888CF2}" name="Mes" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{BC1937A7-A6F3-4019-8F0B-60B16E6CCAC7}" name="Fecha" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{0D0FD998-7A27-4543-999D-FE1E149CCB45}" name="Documento" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{27C115B6-6274-43AF-A047-B014FC3752D5}" name="Cuadrillero" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{F934CB7F-B87F-4107-8A54-F118E01280A8}" name="Labor" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{3284687B-70EC-4DC3-9EF3-BBA234533B31}" name="Campo" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{6BF3E704-3F70-4CF9-B15B-97195EAB7DEB}" name="Horas total x dia" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{3688AE2E-44C0-4147-9C3C-B411CA70E8AF}" name="Hora inicial" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{B923B5EA-FD28-433A-8090-E1B67FB4B9F1}" name="Hora final" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{B2753056-5702-4DFD-89FD-09214BB6B2E5}" name="Total de horas" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{690EE152-C8F6-4281-BDAD-2BEBDDFF6AC5}" name="Costo hora" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{738DC6D6-CA13-4A0B-8562-726A03E47000}" name="Gasto" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{DE01F3CB-7246-4A42-91A3-B1931E49159A}" name="Gasto bono" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{85416B26-3F0C-414D-9DD8-B6C606080F55}" name="Gasto total" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB336F25-1D0F-46DA-8563-18174C1D4435}" name="GASTO_CUADRILLA_FDM_ADICIONAL" displayName="GASTO_CUADRILLA_FDM_ADICIONAL" ref="A1:F2" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:F2" xr:uid="{BB336F25-1D0F-46DA-8563-18174C1D4435}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C0E107B0-D071-47E5-B8CA-BA905F76DA67}" name="N°" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{5EC93239-361C-4FF0-B483-B84490752145}" name="Grupo" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C7603837-8DB5-4C57-BA13-DC28A62C58E7}" name="Descripción" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{29F03940-C851-4E94-B04D-D510BB38F8A6}" name="Monto" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{DC8E85B8-4971-4562-9A0A-A3E82FEB5ADE}" name="Fecha de Gasto" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{137D1A67-D1CE-4926-8810-7DF87E72D929}" name="Fecha Contable" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -803,25 +988,26 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="5" customWidth="1"/>
     <col min="16" max="16" width="14" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -890,4 +1076,50 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A9276-7379-4CB9-B6A6-4860360795DA}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/public/templates/reporte_gasto_cuadrilla_fdm.xlsx
+++ b/public/templates/reporte_gasto_cuadrilla_fdm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\santarita\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tierrasanta\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854680E-8EA5-4755-8EB9-5BDA37174BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D083425-D1B8-41E2-9EB5-CFD2600A3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GASTO_CUADRILLA_FDM" sheetId="1" r:id="rId1"/>
@@ -988,30 +988,30 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1082,21 +1082,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A9276-7379-4CB9-B6A6-4860360795DA}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>

--- a/public/templates/reporte_gasto_cuadrilla_fdm.xlsx
+++ b/public/templates/reporte_gasto_cuadrilla_fdm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tierrasanta\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D083425-D1B8-41E2-9EB5-CFD2600A3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844D653-1D37-47B2-A812-8D8CDE48FC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Total de horas</t>
   </si>
   <si>
-    <t>Costo hora</t>
-  </si>
-  <si>
     <t>Gasto</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Grupo</t>
+  </si>
+  <si>
+    <t>Costo Dia</t>
   </si>
 </sst>
 </file>
@@ -392,6 +392,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$S/-280A]\ * #,##0.00_-;\-[$S/-280A]\ * #,##0.00_-;_-[$S/-280A]\ * &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -458,7 +459,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="28" formatCode="mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -672,7 +673,7 @@
     <tableColumn id="8" xr3:uid="{3688AE2E-44C0-4147-9C3C-B411CA70E8AF}" name="Hora inicial" dataDxfId="29" totalsRowDxfId="28"/>
     <tableColumn id="9" xr3:uid="{B923B5EA-FD28-433A-8090-E1B67FB4B9F1}" name="Hora final" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="10" xr3:uid="{B2753056-5702-4DFD-89FD-09214BB6B2E5}" name="Total de horas" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{690EE152-C8F6-4281-BDAD-2BEBDDFF6AC5}" name="Costo hora" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{690EE152-C8F6-4281-BDAD-2BEBDDFF6AC5}" name="Costo Dia" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="12" xr3:uid="{738DC6D6-CA13-4A0B-8562-726A03E47000}" name="Gasto" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
     <tableColumn id="13" xr3:uid="{DE01F3CB-7246-4A42-91A3-B1931E49159A}" name="Gasto bono" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="14" xr3:uid="{85416B26-3F0C-414D-9DD8-B6C606080F55}" name="Gasto total" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
@@ -989,7 +990,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,10 +1003,10 @@
     <col min="6" max="6" width="32.5546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="37.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="11" width="8.109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="9" customWidth="1"/>
     <col min="14" max="14" width="16.88671875" style="5" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" style="5" customWidth="1"/>
     <col min="16" max="16" width="18.88671875" style="5" customWidth="1"/>
@@ -1016,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
@@ -1028,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>3</v>
@@ -1049,20 +1050,19 @@
         <v>7</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="N2" s="9"/>
@@ -1098,22 +1098,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
